--- a/medicine/Handicap/See_for_Me/See_for_Me.xlsx
+++ b/medicine/Handicap/See_for_Me/See_for_Me.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">See for Me (litt. « Vois pour moi ») est un film américain réalisé par Randall Okita, sorti en 2021.
 Il est présenté le 10 juin 2021, en avant-première, au festival du film de Tribeca.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sophie Scott (Skyler Davenport), jeune aveugle, arrive dans un immense manoir perdu dans la forêt : elle a pour mission de garder le chat de la riche propriétaire qui va s'absenter pour quelques jours. Une nuit, elle est réveillée par les trois rôdeurs. Pensant être seuls, ceux-ci font irruption dans la maison et sont à la recherche d’un coffre-fort caché. Pour survivre, Sophie utilise une application spécialisée pour aveugles, « See for Me », sur son téléphone portable sur laquelle elle parvient à se connecter avec une vétéran bénévole et une joueuse de jeux vidéo, Kelly (Jessica Parker Kennedy), qui l'aident à se repérer dans la maison.
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original et français : See for Me
@@ -567,8 +583,8 @@
 Dates de sortie :
 États-Unis : 10 juin 2021 (avant-première au festival du film de Tribeca)
 Canada : 7 janvier 2022
-Québec : 11 janvier 2022 (VSD)[1]
-France : 1er mars 2022[2]
+Québec : 11 janvier 2022 (VSD)
+France : 1er mars 2022
 Classification :
 France : Tout public avec avertissement lors de sa sortie en VOD et en DVD et déconseillé aux moins de 10 ans à la télévision</t>
         </is>
@@ -598,7 +614,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Skyler Davenport : Sophie Scott
@@ -612,7 +630,7 @@
 Emily Piggford : l'adjoint Brooks
 Matthew Gouveia : Cabbie
 Natalie Brown : la mère de Sophie
- Source et légende : version française (VF) sur RS Doublage[3]
+ Source et légende : version française (VF) sur RS Doublage
 </t>
         </is>
       </c>
@@ -641,11 +659,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En novembre 2020, on révèle que la société parisienne Elle Driver prévente le film encore en post-production, avec Skyler Davenport, Jessica Parker Kennedy et Kim Coates, et que Skyler Davenport est elle-même aveugle depuis son accident vasculaire cérébral en 2012[4].
-Tournage
-Le tournage commence en 2020, à Toronto, en Ontario (Canada), et s'est temporairement interrompu par la pandémie de Covid-19 au Canada, avant de finaliser dans les deux premières semaines en août[5],[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En novembre 2020, on révèle que la société parisienne Elle Driver prévente le film encore en post-production, avec Skyler Davenport, Jessica Parker Kennedy et Kim Coates, et que Skyler Davenport est elle-même aveugle depuis son accident vasculaire cérébral en 2012.
 </t>
         </is>
       </c>
@@ -671,18 +689,130 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage commence en 2020, à Toronto, en Ontario (Canada), et s'est temporairement interrompu par la pandémie de Covid-19 au Canada, avant de finaliser dans les deux premières semaines en août,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>See_for_Me</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/See_for_Me</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Post-production et festival
-En novembre 2020, on apprend que le film est examiné par les distributeurs au American Film Market (en)[7], avant de le présenter en avant-première au festival du film de Tribeca, ayant lieu  le 10 juin 2021[8].
-Critiques
-Sur l'agrégateur américain Rotten Tomatoes, il récolte 80 % d'opinions favorables pour 80 critiques et une note moyenne de 6,5⁄10[9]. Sur Metacritic, il obtient une note moyenne de 59⁄100 pour 14 critiques[10].
-Michael Nordine, de Variety, souligne « un thriller sur violation de domicile qui ressemble à un classique culte en cours de réalisation »[11].
-Box-office
-Aux États-Unis et au Canada, le film gagne 23 070 dollars à la première fin de semaine[12]. Le 11 février 2022, on totalise la recette brute : 83 384 de dollars[13],[14].
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Post-production et festival</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En novembre 2020, on apprend que le film est examiné par les distributeurs au American Film Market (en), avant de le présenter en avant-première au festival du film de Tribeca, ayant lieu  le 10 juin 2021.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>See_for_Me</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/See_for_Me</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Critiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur l'agrégateur américain Rotten Tomatoes, il récolte 80 % d'opinions favorables pour 80 critiques et une note moyenne de 6,5⁄10. Sur Metacritic, il obtient une note moyenne de 59⁄100 pour 14 critiques.
+Michael Nordine, de Variety, souligne « un thriller sur violation de domicile qui ressemble à un classique culte en cours de réalisation ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>See_for_Me</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/See_for_Me</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aux États-Unis et au Canada, le film gagne 23 070 dollars à la première fin de semaine. Le 11 février 2022, on totalise la recette brute : 83 384 de dollars,.
 </t>
         </is>
       </c>
